--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hgf-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hgf-Cd44.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H2">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I2">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J2">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N2">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O2">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P2">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q2">
-        <v>3.464085058062223</v>
+        <v>0.04617349231366666</v>
       </c>
       <c r="R2">
-        <v>31.17676552256001</v>
+        <v>0.415561430823</v>
       </c>
       <c r="S2">
-        <v>0.0003146628318643276</v>
+        <v>4.711745033897278E-06</v>
       </c>
       <c r="T2">
-        <v>0.0003146628318643276</v>
+        <v>4.711745033897278E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H3">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I3">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J3">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q3">
-        <v>9.30178384207389</v>
+        <v>0.2424590369316667</v>
       </c>
       <c r="R3">
-        <v>83.71605457866501</v>
+        <v>2.182131332385</v>
       </c>
       <c r="S3">
-        <v>0.000844934693022264</v>
+        <v>2.474158019986204E-05</v>
       </c>
       <c r="T3">
-        <v>0.0008449346930222641</v>
+        <v>2.474158019986204E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H4">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I4">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J4">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N4">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q4">
-        <v>4.211618962738222</v>
+        <v>0.1208945316526666</v>
       </c>
       <c r="R4">
-        <v>37.904570664644</v>
+        <v>1.088050784874</v>
       </c>
       <c r="S4">
-        <v>0.0003825656493232986</v>
+        <v>1.233660658089726E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003825656493232987</v>
+        <v>1.233660658089726E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H5">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I5">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J5">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N5">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q5">
-        <v>13.30541314048311</v>
+        <v>0.2870569426639999</v>
       </c>
       <c r="R5">
-        <v>119.748718264348</v>
+        <v>2.583512483976</v>
       </c>
       <c r="S5">
-        <v>0.001208607441138083</v>
+        <v>2.92925454902727E-05</v>
       </c>
       <c r="T5">
-        <v>0.001208607441138084</v>
+        <v>2.92925454902727E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>45.22258</v>
       </c>
       <c r="I6">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J6">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N6">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O6">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P6">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q6">
-        <v>479.7725818865779</v>
+        <v>245.3394959504378</v>
       </c>
       <c r="R6">
-        <v>4317.9532369792</v>
+        <v>2208.05546355394</v>
       </c>
       <c r="S6">
-        <v>0.04358051166091745</v>
+        <v>0.02503551483198477</v>
       </c>
       <c r="T6">
-        <v>0.04358051166091746</v>
+        <v>0.02503551483198477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>45.22258</v>
       </c>
       <c r="I7">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J7">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q7">
         <v>1288.288473077811</v>
@@ -883,10 +883,10 @@
         <v>11594.5962577003</v>
       </c>
       <c r="S7">
-        <v>0.11702267479067</v>
+        <v>0.1314625884049674</v>
       </c>
       <c r="T7">
-        <v>0.11702267479067</v>
+        <v>0.1314625884049674</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>45.22258</v>
       </c>
       <c r="I8">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J8">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N8">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q8">
-        <v>583.3053374288978</v>
+        <v>642.3643084508577</v>
       </c>
       <c r="R8">
-        <v>5249.74803686008</v>
+        <v>5781.278776057719</v>
       </c>
       <c r="S8">
-        <v>0.05298498917911307</v>
+        <v>0.06554966255823676</v>
       </c>
       <c r="T8">
-        <v>0.05298498917911307</v>
+        <v>0.06554966255823677</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>45.22258</v>
       </c>
       <c r="I9">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J9">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N9">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q9">
-        <v>1842.787434049929</v>
+        <v>1525.256204227253</v>
       </c>
       <c r="R9">
-        <v>16585.08690644936</v>
+        <v>13727.30583804528</v>
       </c>
       <c r="S9">
-        <v>0.1673910145978098</v>
+        <v>0.1556438117539063</v>
       </c>
       <c r="T9">
-        <v>0.1673910145978099</v>
+        <v>0.1556438117539063</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H10">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I10">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J10">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N10">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O10">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P10">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q10">
-        <v>21.98282306951111</v>
+        <v>25.74157819826755</v>
       </c>
       <c r="R10">
-        <v>197.8454076256</v>
+        <v>231.674203784408</v>
       </c>
       <c r="S10">
-        <v>0.001996826649312774</v>
+        <v>0.002626783185825133</v>
       </c>
       <c r="T10">
-        <v>0.001996826649312775</v>
+        <v>0.002626783185825133</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H11">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I11">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J11">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q11">
-        <v>59.02842020441945</v>
+        <v>135.1701581646622</v>
       </c>
       <c r="R11">
-        <v>531.255781839775</v>
+        <v>1216.53142348196</v>
       </c>
       <c r="S11">
-        <v>0.005361891971668347</v>
+        <v>0.01379335392560177</v>
       </c>
       <c r="T11">
-        <v>0.005361891971668348</v>
+        <v>0.01379335392560177</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H12">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I12">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J12">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N12">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q12">
-        <v>26.72661696877111</v>
+        <v>67.39832497701155</v>
       </c>
       <c r="R12">
-        <v>240.5395527189399</v>
+        <v>606.5849247931041</v>
       </c>
       <c r="S12">
-        <v>0.002427732818503918</v>
+        <v>0.006877619757373971</v>
       </c>
       <c r="T12">
-        <v>0.002427732818503918</v>
+        <v>0.006877619757373972</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H13">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I13">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J13">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N13">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q13">
-        <v>84.43515041677554</v>
+        <v>160.0333517496107</v>
       </c>
       <c r="R13">
-        <v>759.91635375098</v>
+        <v>1440.300165746496</v>
       </c>
       <c r="S13">
-        <v>0.007669731860999764</v>
+        <v>0.01633050290503976</v>
       </c>
       <c r="T13">
-        <v>0.007669731860999767</v>
+        <v>0.01633050290503976</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H14">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I14">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J14">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N14">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O14">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P14">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q14">
-        <v>754.0949140056891</v>
+        <v>378.4490482946421</v>
       </c>
       <c r="R14">
-        <v>6786.854226051202</v>
+        <v>3406.041434651779</v>
       </c>
       <c r="S14">
-        <v>0.06849879179013349</v>
+        <v>0.03861859553035464</v>
       </c>
       <c r="T14">
-        <v>0.06849879179013352</v>
+        <v>0.03861859553035464</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H15">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I15">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J15">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q15">
-        <v>2024.900592484881</v>
+        <v>1987.25258106729</v>
       </c>
       <c r="R15">
-        <v>18224.10533236393</v>
+        <v>17885.27322960561</v>
       </c>
       <c r="S15">
-        <v>0.1839334034804184</v>
+        <v>0.2027879419718902</v>
       </c>
       <c r="T15">
-        <v>0.1839334034804184</v>
+        <v>0.2027879419718902</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H16">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I16">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J16">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N16">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q16">
-        <v>916.825189421709</v>
+        <v>990.8806580444891</v>
       </c>
       <c r="R16">
-        <v>8251.42670479538</v>
+        <v>8917.925922400402</v>
       </c>
       <c r="S16">
-        <v>0.08328052157857883</v>
+        <v>0.1011137946423884</v>
       </c>
       <c r="T16">
-        <v>0.08328052157857885</v>
+        <v>0.1011137946423884</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H17">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I17">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J17">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N17">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q17">
-        <v>2896.448617689385</v>
+        <v>2352.787742793405</v>
       </c>
       <c r="R17">
-        <v>26068.03755920446</v>
+        <v>21175.08968514065</v>
       </c>
       <c r="S17">
-        <v>0.2631011390065261</v>
+        <v>0.2400887480551261</v>
       </c>
       <c r="T17">
-        <v>0.2631011390065262</v>
+        <v>0.2400887480551261</v>
       </c>
     </row>
   </sheetData>
